--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>412860.7536219446</v>
+        <v>416576.3581856417</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714286.6128340089</v>
+        <v>714286.6128340091</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12179384.22975869</v>
+        <v>12179384.22975868</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7557514.863502702</v>
+        <v>7557514.8635027</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.4179210858486</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>299.6523457554197</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20.81620099292955</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,10 +898,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>125.6127354237554</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>131.1368544181939</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +983,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.7489014770761</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>149.1449268053085</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.31882417064585</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>188.1582211987005</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
@@ -1196,10 +1198,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>206.4340681578427</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1218,16 +1220,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>50.42174264793019</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1278,7 +1280,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>132.9897430948735</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.96816892577743</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>235.4921832098738</v>
       </c>
       <c r="E11" t="n">
-        <v>236.2269417819892</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
         <v>410.0096787829314</v>
@@ -1446,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>128.1292407675116</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>88.87271081540639</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.7420538716369</v>
       </c>
       <c r="H13" t="n">
         <v>157.7789187685189</v>
@@ -1549,7 +1551,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J13" t="n">
-        <v>14.62605510125663</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>127.2173885272225</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>133.467137197124</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>46.76748563535498</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -1692,19 +1694,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>186.7982527956746</v>
@@ -1768,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>75.2428716471253</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.7420538716369</v>
       </c>
       <c r="H16" t="n">
         <v>157.7789187685189</v>
@@ -1786,7 +1788,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1844,22 +1846,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>133.467137197124</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>94.10972913527387</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1901,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
         <v>389.6064368699203</v>
@@ -1929,19 +1931,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U18" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>128.6609379951667</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2090,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>250.6578431917893</v>
+        <v>55.34272704915005</v>
       </c>
       <c r="G20" t="n">
         <v>411.9429466803539</v>
@@ -2126,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
@@ -2166,16 +2168,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2211,10 +2213,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
-        <v>15.94401860907854</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -2245,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>95.35118060347804</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>77.2673167009323</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>255.3987578699663</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>329.4930616586638</v>
+        <v>43.12891713067297</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -2403,19 +2405,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,13 +2450,13 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>174.3572224783882</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
@@ -2494,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>52.16351562531266</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>167.1394242513582</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,19 +2557,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>79.22147732004949</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>76.79349034712112</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2651,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>67.69846245683961</v>
@@ -2682,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>41.33210888672573</v>
       </c>
       <c r="U27" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W27" t="n">
-        <v>69.33826150006736</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X27" t="n">
         <v>195.9378182409833</v>
@@ -2716,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>117.0695271557966</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>268.6107013963112</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -2792,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>103.1087300426801</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>171.0890268032919</v>
+        <v>152.0601725718438</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2922,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="U30" t="n">
-        <v>158.7034744856297</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>147.8649255692296</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>177.0990279530006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>289.2272834697995</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I32" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>307.7047522923143</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3117,16 +3119,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G33" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
-        <v>168.5052963341061</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
         <v>238.9027100790231</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>167.1394242513582</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>368.1240071219298</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>218.422751200161</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,22 +3350,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>31.7489014770761</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>151.2714921173871</v>
+        <v>20.48684282892073</v>
       </c>
       <c r="T36" t="n">
         <v>186.7982527956746</v>
@@ -3430,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.8372140727289</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3445,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.5841378245459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>378.1144210805207</v>
@@ -3509,7 +3511,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>64.26793438746503</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I38" t="n">
         <v>171.0890268032919</v>
@@ -3551,7 +3553,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>8.553462958551005</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
         <v>145.5577298436975</v>
@@ -3594,10 +3596,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>26.01386798712263</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>118.5693386622599</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>216.3098444776729</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.78874461372734</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>116.0788983323591</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>103.4701752764821</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>58.72465793940852</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -3819,7 +3821,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
-        <v>106.278126330654</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
         <v>137.45025063969</v>
@@ -3831,13 +3833,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>216.3098444776729</v>
+        <v>202.5716598020308</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3885,7 +3887,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="43">
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.0380364259622</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>312.648761945392</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>390.8378626949542</v>
@@ -3989,13 +3991,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>79.82974192480785</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -4059,13 +4061,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
-        <v>42.31426344392277</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4110,7 +4112,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
-        <v>216.3098444776729</v>
+        <v>114.7118858851247</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>58.06332912686938</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>125.2040305762914</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>756.7792891710826</v>
+        <v>344.7033932278858</v>
       </c>
       <c r="C2" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D2" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E2" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F2" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G2" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H2" t="n">
         <v>42.02425610119923</v>
@@ -4361,19 +4363,19 @@
         <v>1876.853858790972</v>
       </c>
       <c r="U2" t="n">
-        <v>1621.968522504967</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="V2" t="n">
-        <v>1621.968522504967</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="W2" t="n">
-        <v>1259.433592362568</v>
+        <v>1514.318928648574</v>
       </c>
       <c r="X2" t="n">
-        <v>877.403451884061</v>
+        <v>1132.288788170067</v>
       </c>
       <c r="Y2" t="n">
-        <v>877.403451884061</v>
+        <v>738.7469327459049</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4409,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K3" t="n">
-        <v>102.2784026343054</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L3" t="n">
-        <v>468.100247804421</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M3" t="n">
-        <v>953.1336013146474</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N3" t="n">
-        <v>1464.39924743777</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O3" t="n">
-        <v>1856.59919822192</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P3" t="n">
         <v>1943.441175274367</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="C4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="D4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="E4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="F4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="G4" t="n">
-        <v>42.02425610119923</v>
+        <v>366.6264113686707</v>
       </c>
       <c r="H4" t="n">
-        <v>42.02425610119923</v>
+        <v>207.2537661479445</v>
       </c>
       <c r="I4" t="n">
-        <v>42.02425610119923</v>
+        <v>63.05072175062301</v>
       </c>
       <c r="J4" t="n">
         <v>42.02425610119923</v>
@@ -4510,28 +4512,28 @@
         <v>535.5461600008207</v>
       </c>
       <c r="R4" t="n">
-        <v>386.0243786151989</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S4" t="n">
-        <v>172.3146160188864</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="T4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="U4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="V4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="W4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="X4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1429.302003668149</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C5" t="n">
-        <v>1047.368245000957</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D5" t="n">
-        <v>674.5442802281802</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E5" t="n">
-        <v>674.5442802281802</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F5" t="n">
-        <v>674.5442802281802</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G5" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H5" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I5" t="n">
         <v>42.02425610119923</v>
@@ -4595,22 +4597,22 @@
         <v>1823.345543186168</v>
       </c>
       <c r="T5" t="n">
-        <v>1823.345543186168</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U5" t="n">
-        <v>1823.345543186168</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V5" t="n">
-        <v>1823.345543186168</v>
+        <v>1211.639791521887</v>
       </c>
       <c r="W5" t="n">
-        <v>1823.345543186168</v>
+        <v>1211.639791521887</v>
       </c>
       <c r="X5" t="n">
-        <v>1823.345543186168</v>
+        <v>829.6096510433804</v>
       </c>
       <c r="Y5" t="n">
-        <v>1823.345543186168</v>
+        <v>436.0677956192184</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>489.5945758131612</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C6" t="n">
-        <v>327.8909030541159</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D6" t="n">
-        <v>189.052266044328</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E6" t="n">
         <v>42.02425610119923</v>
@@ -4659,7 +4661,7 @@
         <v>1693.889799997958</v>
       </c>
       <c r="O6" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P6" t="n">
         <v>2101.212805059961</v>
@@ -4668,28 +4670,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>2069.143207608369</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S6" t="n">
-        <v>1916.343720621109</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T6" t="n">
-        <v>1727.658616787095</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U6" t="n">
-        <v>1509.163824385405</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V6" t="n">
-        <v>1280.768201833739</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W6" t="n">
-        <v>1039.452333067049</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X6" t="n">
-        <v>841.5353449448434</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y6" t="n">
-        <v>649.0140185944222</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.0483425394087</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C7" t="n">
-        <v>352.0483425394087</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D7" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E7" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F7" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G7" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H7" t="n">
         <v>42.02425610119923</v>
@@ -4747,28 +4749,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R7" t="n">
-        <v>574.0835013471317</v>
+        <v>488.9129718818328</v>
       </c>
       <c r="S7" t="n">
-        <v>574.0835013471317</v>
+        <v>275.2032092855204</v>
       </c>
       <c r="T7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y7" t="n">
-        <v>352.0483425394087</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.02425610119923</v>
+        <v>232.0830653928159</v>
       </c>
       <c r="C8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4828,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>1344.101260631174</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V8" t="n">
-        <v>1007.121986527115</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="W8" t="n">
-        <v>644.5870563847161</v>
+        <v>1401.698600813504</v>
       </c>
       <c r="X8" t="n">
-        <v>436.0677956192184</v>
+        <v>1019.668460334997</v>
       </c>
       <c r="Y8" t="n">
-        <v>436.0677956192184</v>
+        <v>626.126604910835</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H9" t="n">
         <v>110.4065414111382</v>
@@ -4881,16 +4883,16 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>1039.975578367094</v>
       </c>
       <c r="N9" t="n">
         <v>1551.241224490216</v>
@@ -4905,28 +4907,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1882.718012658271</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1654.322390106605</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1413.006521339915</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X9" t="n">
-        <v>1215.08953321771</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119923</v>
+        <v>405.1637527149817</v>
       </c>
       <c r="H10" t="n">
-        <v>42.02425610119923</v>
+        <v>245.7911074942555</v>
       </c>
       <c r="I10" t="n">
-        <v>42.02425610119923</v>
+        <v>101.588063096934</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4993,19 +4995,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>286.8932618362315</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1616.530979037796</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="C11" t="n">
-        <v>1616.530979037796</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="D11" t="n">
-        <v>1616.530979037796</v>
+        <v>1772.703626424629</v>
       </c>
       <c r="E11" t="n">
         <v>1377.917906530736</v>
@@ -5042,16 +5044,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K11" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L11" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M11" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N11" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O11" t="n">
         <v>1778.623654917371</v>
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>461.879904359699</v>
+        <v>681.083616046014</v>
       </c>
       <c r="C12" t="n">
-        <v>300.1762316006536</v>
+        <v>681.083616046014</v>
       </c>
       <c r="D12" t="n">
-        <v>170.7527560779147</v>
+        <v>542.244979036226</v>
       </c>
       <c r="E12" t="n">
-        <v>170.7527560779147</v>
+        <v>395.2169690930972</v>
       </c>
       <c r="F12" t="n">
-        <v>170.7527560779147</v>
+        <v>260.5231710429716</v>
       </c>
       <c r="G12" t="n">
-        <v>42.02425610119923</v>
+        <v>131.7946710662562</v>
       </c>
       <c r="H12" t="n">
         <v>42.02425610119923</v>
@@ -5118,22 +5120,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K12" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L12" t="n">
-        <v>697.5908003646097</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M12" t="n">
-        <v>1182.624153874836</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N12" t="n">
-        <v>1693.889799997958</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O12" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P12" t="n">
         <v>2101.212805059961</v>
@@ -5142,28 +5144,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R12" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S12" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T12" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U12" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V12" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W12" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X12" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y12" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C13" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D13" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E13" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F13" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="G13" t="n">
-        <v>360.3737387508193</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H13" t="n">
-        <v>201.0010935300931</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I13" t="n">
-        <v>56.79804913277158</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J13" t="n">
         <v>42.02425610119923</v>
@@ -5224,25 +5226,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S13" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T13" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U13" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V13" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W13" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X13" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y13" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2101.212805059961</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="C14" t="n">
-        <v>1972.710392406201</v>
+        <v>549.6635109720808</v>
       </c>
       <c r="D14" t="n">
-        <v>1599.886427633425</v>
+        <v>176.8395461993043</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.100707739532</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F14" t="n">
-        <v>790.949517049702</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G14" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H14" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I14" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J14" t="n">
         <v>114.0228003740049</v>
@@ -5318,10 +5320,10 @@
         <v>2101.212805059961</v>
       </c>
       <c r="X14" t="n">
-        <v>2101.212805059961</v>
+        <v>1719.182664581455</v>
       </c>
       <c r="Y14" t="n">
-        <v>2101.212805059961</v>
+        <v>1325.640809157293</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>461.879904359699</v>
+        <v>786.6432185531175</v>
       </c>
       <c r="C15" t="n">
-        <v>300.1762316006536</v>
+        <v>624.9395457940723</v>
       </c>
       <c r="D15" t="n">
-        <v>161.3375945908657</v>
+        <v>486.1009087842844</v>
       </c>
       <c r="E15" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="F15" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G15" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H15" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I15" t="n">
         <v>42.02425610119923</v>
@@ -5367,40 +5369,40 @@
         <v>1182.624153874836</v>
       </c>
       <c r="N15" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O15" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P15" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q15" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R15" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S15" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T15" t="n">
-        <v>1699.943945333632</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="U15" t="n">
-        <v>1481.449152931943</v>
+        <v>1694.032908824257</v>
       </c>
       <c r="V15" t="n">
-        <v>1253.053530380276</v>
+        <v>1465.63728627259</v>
       </c>
       <c r="W15" t="n">
-        <v>1011.737661613587</v>
+        <v>1224.321417505901</v>
       </c>
       <c r="X15" t="n">
-        <v>813.8206734913811</v>
+        <v>1026.404429383695</v>
       </c>
       <c r="Y15" t="n">
-        <v>621.2993471409599</v>
+        <v>833.8831030332741</v>
       </c>
     </row>
     <row r="16">
@@ -5416,22 +5418,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="D16" t="n">
-        <v>498.0806006934698</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E16" t="n">
-        <v>498.0806006934698</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F16" t="n">
-        <v>345.5999457192469</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="G16" t="n">
-        <v>345.5999457192469</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H16" t="n">
-        <v>186.2273004985207</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I16" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J16" t="n">
         <v>42.02425610119923</v>
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>790.949517049702</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="C17" t="n">
-        <v>790.949517049702</v>
+        <v>549.6635109720808</v>
       </c>
       <c r="D17" t="n">
-        <v>790.949517049702</v>
+        <v>176.8395461993043</v>
       </c>
       <c r="E17" t="n">
-        <v>790.949517049702</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F17" t="n">
-        <v>790.949517049702</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G17" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H17" t="n">
         <v>42.02425610119923</v>
@@ -5537,28 +5539,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R17" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S17" t="n">
-        <v>1915.514186095942</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T17" t="n">
-        <v>1915.514186095942</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U17" t="n">
-        <v>1915.514186095942</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V17" t="n">
-        <v>1578.534911991883</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W17" t="n">
-        <v>1578.534911991883</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X17" t="n">
-        <v>1578.534911991883</v>
+        <v>1719.182664581455</v>
       </c>
       <c r="Y17" t="n">
-        <v>1184.993056567721</v>
+        <v>1325.640809157293</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C18" t="n">
-        <v>759.6333438441981</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D18" t="n">
-        <v>620.7947068344101</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E18" t="n">
-        <v>473.7666968912813</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F18" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G18" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I18" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2784026343054</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L18" t="n">
-        <v>468.100247804421</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="M18" t="n">
         <v>737.8796590913968</v>
@@ -5616,28 +5618,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R18" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S18" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T18" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U18" t="n">
-        <v>1940.906265175487</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V18" t="n">
-        <v>1712.510642623821</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W18" t="n">
-        <v>1471.194773857131</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X18" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y18" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>340.9045481628106</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C19" t="n">
-        <v>340.9045481628106</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D19" t="n">
-        <v>340.9045481628106</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E19" t="n">
-        <v>340.9045481628106</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F19" t="n">
-        <v>340.9045481628106</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G19" t="n">
-        <v>171.9847995306606</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H19" t="n">
-        <v>171.9847995306606</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I19" t="n">
         <v>42.02425610119923</v>
@@ -5701,22 +5703,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T19" t="n">
-        <v>340.9045481628106</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U19" t="n">
-        <v>340.9045481628106</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V19" t="n">
-        <v>340.9045481628106</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W19" t="n">
-        <v>340.9045481628106</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X19" t="n">
-        <v>340.9045481628106</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y19" t="n">
-        <v>340.9045481628106</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1216.956456438673</v>
+        <v>1019.668460334997</v>
       </c>
       <c r="C20" t="n">
-        <v>1216.956456438673</v>
+        <v>1019.668460334997</v>
       </c>
       <c r="D20" t="n">
-        <v>1216.956456438673</v>
+        <v>1019.668460334997</v>
       </c>
       <c r="E20" t="n">
-        <v>1216.956456438673</v>
+        <v>1019.668460334997</v>
       </c>
       <c r="F20" t="n">
         <v>963.766715840906</v>
@@ -5774,28 +5776,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R20" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S20" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T20" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U20" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V20" t="n">
-        <v>1598.98659691718</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="W20" t="n">
-        <v>1598.98659691718</v>
+        <v>1401.698600813504</v>
       </c>
       <c r="X20" t="n">
-        <v>1216.956456438673</v>
+        <v>1019.668460334997</v>
       </c>
       <c r="Y20" t="n">
-        <v>1216.956456438673</v>
+        <v>1019.668460334997</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>852.9547312933042</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C21" t="n">
-        <v>691.251058534259</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D21" t="n">
-        <v>552.412421524471</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E21" t="n">
-        <v>405.3844115813423</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F21" t="n">
-        <v>270.6906135312166</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G21" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H21" t="n">
         <v>42.02425610119923</v>
@@ -5838,16 +5840,16 @@
         <v>697.5908003646097</v>
       </c>
       <c r="M21" t="n">
-        <v>1182.624153874836</v>
+        <v>1130.079609875548</v>
       </c>
       <c r="N21" t="n">
-        <v>1406.916935000113</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O21" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P21" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q21" t="n">
         <v>2101.212805059961</v>
@@ -5859,22 +5861,22 @@
         <v>1888.629049167647</v>
       </c>
       <c r="T21" t="n">
-        <v>1888.629049167647</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U21" t="n">
-        <v>1872.523979865548</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V21" t="n">
-        <v>1644.128357313882</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W21" t="n">
-        <v>1402.812488547192</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X21" t="n">
-        <v>1204.895500424986</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y21" t="n">
-        <v>1012.374174074565</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1665.467883655926</v>
+        <v>1873.643229026933</v>
       </c>
       <c r="C22" t="n">
-        <v>1665.467883655926</v>
+        <v>1873.643229026933</v>
       </c>
       <c r="D22" t="n">
-        <v>1665.467883655926</v>
+        <v>1873.643229026933</v>
       </c>
       <c r="E22" t="n">
-        <v>1665.467883655926</v>
+        <v>1721.634214788252</v>
       </c>
       <c r="F22" t="n">
-        <v>1665.467883655926</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G22" t="n">
-        <v>1665.467883655926</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H22" t="n">
         <v>1569.153559814029</v>
@@ -5932,28 +5934,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R22" t="n">
-        <v>2101.212805059961</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="S22" t="n">
-        <v>1887.503042463649</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="T22" t="n">
-        <v>1887.503042463649</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.503042463649</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="V22" t="n">
-        <v>1887.503042463649</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="W22" t="n">
-        <v>1887.503042463649</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="X22" t="n">
-        <v>1887.503042463649</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="Y22" t="n">
-        <v>1665.467883655926</v>
+        <v>1873.643229026933</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1616.530979037796</v>
+        <v>1254.497732989254</v>
       </c>
       <c r="C23" t="n">
-        <v>1616.530979037796</v>
+        <v>872.5639743220609</v>
       </c>
       <c r="D23" t="n">
-        <v>1616.530979037796</v>
+        <v>499.7400095492844</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.745259143902</v>
+        <v>499.7400095492844</v>
       </c>
       <c r="F23" t="n">
-        <v>963.766715840906</v>
+        <v>85.58881885945476</v>
       </c>
       <c r="G23" t="n">
-        <v>547.662729295094</v>
+        <v>85.58881885945476</v>
       </c>
       <c r="H23" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I23" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J23" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740046</v>
       </c>
       <c r="K23" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L23" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M23" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N23" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O23" t="n">
         <v>1778.623654917371</v>
@@ -6026,13 +6028,13 @@
         <v>2010.574518555815</v>
       </c>
       <c r="W23" t="n">
-        <v>2010.574518555815</v>
+        <v>1648.039588413416</v>
       </c>
       <c r="X23" t="n">
-        <v>2010.574518555815</v>
+        <v>1648.039588413416</v>
       </c>
       <c r="Y23" t="n">
-        <v>2010.574518555815</v>
+        <v>1254.497732989254</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>461.879904359699</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C24" t="n">
-        <v>300.1762316006536</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D24" t="n">
-        <v>161.3375945908657</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E24" t="n">
-        <v>42.02425610119923</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F24" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G24" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H24" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I24" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J24" t="n">
-        <v>44.796090196649</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K24" t="n">
-        <v>44.796090196649</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L24" t="n">
-        <v>410.6179353667646</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M24" t="n">
-        <v>895.6512888769911</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N24" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O24" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P24" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q24" t="n">
         <v>2101.212805059961</v>
@@ -6096,22 +6098,22 @@
         <v>1888.629049167647</v>
       </c>
       <c r="T24" t="n">
-        <v>1699.943945333632</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="U24" t="n">
-        <v>1481.449152931943</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="V24" t="n">
-        <v>1253.053530380276</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.737661613587</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X24" t="n">
-        <v>813.8206734913811</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y24" t="n">
-        <v>621.2993471409599</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>154.7719145105746</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C25" t="n">
-        <v>154.7719145105746</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D25" t="n">
-        <v>154.7719145105746</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E25" t="n">
-        <v>154.7719145105746</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F25" t="n">
-        <v>154.7719145105746</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G25" t="n">
-        <v>154.7719145105746</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H25" t="n">
-        <v>154.7719145105746</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I25" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J25" t="n">
         <v>42.02425610119923</v>
@@ -6166,31 +6168,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q25" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R25" t="n">
-        <v>386.0243786151989</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S25" t="n">
-        <v>386.0243786151989</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="T25" t="n">
-        <v>386.0243786151989</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="U25" t="n">
-        <v>386.0243786151989</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="V25" t="n">
-        <v>386.0243786151989</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="W25" t="n">
-        <v>386.0243786151989</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="X25" t="n">
-        <v>154.7719145105746</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y25" t="n">
-        <v>154.7719145105746</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1267.065153230734</v>
+        <v>503.9797090310681</v>
       </c>
       <c r="C26" t="n">
-        <v>1267.065153230734</v>
+        <v>122.0459503638755</v>
       </c>
       <c r="D26" t="n">
-        <v>1267.065153230734</v>
+        <v>122.0459503638755</v>
       </c>
       <c r="E26" t="n">
-        <v>872.2794333368408</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F26" t="n">
-        <v>458.1282426470112</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G26" t="n">
         <v>42.02425610119923</v>
@@ -6248,28 +6250,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R26" t="n">
-        <v>2023.643622891152</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S26" t="n">
-        <v>2023.643622891152</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T26" t="n">
-        <v>2023.643622891152</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U26" t="n">
-        <v>2023.643622891152</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V26" t="n">
-        <v>2023.643622891152</v>
+        <v>1673.595244451756</v>
       </c>
       <c r="W26" t="n">
-        <v>1661.108692748753</v>
+        <v>1673.595244451756</v>
       </c>
       <c r="X26" t="n">
-        <v>1661.108692748753</v>
+        <v>1291.565103973249</v>
       </c>
       <c r="Y26" t="n">
-        <v>1661.108692748753</v>
+        <v>898.0232485490873</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>921.3370166032433</v>
+        <v>821.3991591499413</v>
       </c>
       <c r="C27" t="n">
-        <v>759.6333438441981</v>
+        <v>659.695486390896</v>
       </c>
       <c r="D27" t="n">
-        <v>620.7947068344101</v>
+        <v>520.8568493811081</v>
       </c>
       <c r="E27" t="n">
-        <v>473.7666968912813</v>
+        <v>373.8288394379794</v>
       </c>
       <c r="F27" t="n">
-        <v>339.0728988411556</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="G27" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H27" t="n">
         <v>110.4065414111382</v>
@@ -6303,25 +6305,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K27" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L27" t="n">
-        <v>697.5908003646097</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M27" t="n">
-        <v>895.6512888769911</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N27" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O27" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P27" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q27" t="n">
         <v>2101.212805059961</v>
@@ -6330,25 +6332,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S27" t="n">
-        <v>1948.413318072701</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T27" t="n">
-        <v>1759.728214238687</v>
+        <v>2059.463200123875</v>
       </c>
       <c r="U27" t="n">
-        <v>1541.233421836997</v>
+        <v>1840.968407722185</v>
       </c>
       <c r="V27" t="n">
-        <v>1541.233421836997</v>
+        <v>1612.572785170519</v>
       </c>
       <c r="W27" t="n">
-        <v>1471.194773857131</v>
+        <v>1371.256916403829</v>
       </c>
       <c r="X27" t="n">
-        <v>1273.277785734925</v>
+        <v>1173.339928281623</v>
       </c>
       <c r="Y27" t="n">
-        <v>1080.756459384504</v>
+        <v>980.8186019312022</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1569.153559814029</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="C28" t="n">
-        <v>1569.153559814029</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="D28" t="n">
-        <v>1569.153559814029</v>
+        <v>160.276303733317</v>
       </c>
       <c r="E28" t="n">
-        <v>1569.153559814029</v>
+        <v>160.276303733317</v>
       </c>
       <c r="F28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K28" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L28" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M28" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N28" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O28" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U28" t="n">
-        <v>1829.888864255606</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V28" t="n">
-        <v>1569.153559814029</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="W28" t="n">
-        <v>1569.153559814029</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="X28" t="n">
-        <v>1569.153559814029</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="Y28" t="n">
-        <v>1569.153559814029</v>
+        <v>313.3481969055543</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1876.853858790972</v>
+        <v>577.5541486793452</v>
       </c>
       <c r="C29" t="n">
-        <v>1876.853858790972</v>
+        <v>195.6203900121525</v>
       </c>
       <c r="D29" t="n">
-        <v>1772.703626424629</v>
+        <v>195.6203900121525</v>
       </c>
       <c r="E29" t="n">
-        <v>1377.917906530736</v>
+        <v>195.6203900121525</v>
       </c>
       <c r="F29" t="n">
-        <v>963.766715840906</v>
+        <v>195.6203900121525</v>
       </c>
       <c r="G29" t="n">
-        <v>547.662729295094</v>
+        <v>195.6203900121525</v>
       </c>
       <c r="H29" t="n">
-        <v>214.8414548924032</v>
+        <v>195.6203900121525</v>
       </c>
       <c r="I29" t="n">
         <v>42.02425610119923</v>
@@ -6488,25 +6490,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S29" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T29" t="n">
-        <v>1876.853858790972</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U29" t="n">
-        <v>1876.853858790972</v>
+        <v>1659.098493404309</v>
       </c>
       <c r="V29" t="n">
-        <v>1876.853858790972</v>
+        <v>1322.119219300251</v>
       </c>
       <c r="W29" t="n">
-        <v>1876.853858790972</v>
+        <v>959.5842891578518</v>
       </c>
       <c r="X29" t="n">
-        <v>1876.853858790972</v>
+        <v>577.5541486793452</v>
       </c>
       <c r="Y29" t="n">
-        <v>1876.853858790972</v>
+        <v>577.5541486793452</v>
       </c>
     </row>
     <row r="30">
@@ -6555,10 +6557,10 @@
         <v>1693.889799997958</v>
       </c>
       <c r="O30" t="n">
-        <v>2086.089750782109</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="P30" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q30" t="n">
         <v>2101.212805059961</v>
@@ -6570,7 +6572,7 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T30" t="n">
-        <v>2101.212805059961</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="U30" t="n">
         <v>1940.906265175487</v>
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>211.6402256395189</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C31" t="n">
         <v>42.02425610119923</v>
@@ -6643,28 +6645,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R31" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S31" t="n">
-        <v>574.0835013471317</v>
+        <v>275.2032092855204</v>
       </c>
       <c r="T31" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U31" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V31" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W31" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X31" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y31" t="n">
-        <v>395.1955943238988</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1616.530979037796</v>
+        <v>790.9495170497021</v>
       </c>
       <c r="C32" t="n">
-        <v>1234.597220370603</v>
+        <v>790.9495170497021</v>
       </c>
       <c r="D32" t="n">
-        <v>1234.597220370603</v>
+        <v>790.9495170497021</v>
       </c>
       <c r="E32" t="n">
-        <v>839.8115004767096</v>
+        <v>790.9495170497021</v>
       </c>
       <c r="F32" t="n">
-        <v>839.8115004767096</v>
+        <v>790.9495170497021</v>
       </c>
       <c r="G32" t="n">
-        <v>547.662729295094</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H32" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="I32" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J32" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K32" t="n">
         <v>354.1631724187877</v>
@@ -6722,28 +6724,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R32" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S32" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T32" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U32" t="n">
-        <v>2010.574518555815</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V32" t="n">
-        <v>2010.574518555815</v>
+        <v>1535.514587670608</v>
       </c>
       <c r="W32" t="n">
-        <v>2010.574518555815</v>
+        <v>1172.979657528209</v>
       </c>
       <c r="X32" t="n">
-        <v>2010.574518555815</v>
+        <v>790.9495170497021</v>
       </c>
       <c r="Y32" t="n">
-        <v>2010.574518555815</v>
+        <v>790.9495170497021</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C33" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D33" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E33" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F33" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G33" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I33" t="n">
         <v>42.02425610119923</v>
@@ -6783,19 +6785,19 @@
         <v>331.768955194494</v>
       </c>
       <c r="L33" t="n">
-        <v>331.768955194494</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M33" t="n">
-        <v>816.8023087047204</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N33" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O33" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P33" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q33" t="n">
         <v>2101.212805059961</v>
@@ -6804,25 +6806,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S33" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T33" t="n">
-        <v>2101.212805059961</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U33" t="n">
-        <v>1882.718012658271</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V33" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W33" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X33" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y33" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="34">
@@ -6880,19 +6882,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R34" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S34" t="n">
-        <v>574.0835013471317</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="T34" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U34" t="n">
-        <v>286.8932618362315</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V34" t="n">
-        <v>286.8932618362315</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W34" t="n">
         <v>42.02425610119923</v>
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>423.9580147683919</v>
+        <v>1373.659041791302</v>
       </c>
       <c r="C35" t="n">
-        <v>42.02425610119923</v>
+        <v>1373.659041791302</v>
       </c>
       <c r="D35" t="n">
-        <v>42.02425610119923</v>
+        <v>1000.835077018526</v>
       </c>
       <c r="E35" t="n">
-        <v>42.02425610119923</v>
+        <v>1000.835077018526</v>
       </c>
       <c r="F35" t="n">
-        <v>42.02425610119923</v>
+        <v>586.683886328696</v>
       </c>
       <c r="G35" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H35" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I35" t="n">
         <v>42.02425610119923</v>
@@ -6938,16 +6940,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K35" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187876</v>
       </c>
       <c r="L35" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037339</v>
       </c>
       <c r="M35" t="n">
         <v>1095.287711756822</v>
       </c>
       <c r="N35" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O35" t="n">
         <v>1778.623654917371</v>
@@ -6962,25 +6964,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S35" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T35" t="n">
-        <v>1598.98659691718</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U35" t="n">
-        <v>1344.101260631174</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="V35" t="n">
-        <v>1007.121986527115</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="W35" t="n">
-        <v>644.5870563847161</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="X35" t="n">
-        <v>423.9580147683919</v>
+        <v>1373.659041791302</v>
       </c>
       <c r="Y35" t="n">
-        <v>423.9580147683919</v>
+        <v>1373.659041791302</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>489.5945758131612</v>
+        <v>653.7698796167399</v>
       </c>
       <c r="C36" t="n">
-        <v>327.8909030541159</v>
+        <v>492.0662068576946</v>
       </c>
       <c r="D36" t="n">
-        <v>189.052266044328</v>
+        <v>492.0662068576946</v>
       </c>
       <c r="E36" t="n">
-        <v>42.02425610119923</v>
+        <v>345.0381969145658</v>
       </c>
       <c r="F36" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G36" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H36" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I36" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L36" t="n">
-        <v>468.100247804421</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M36" t="n">
-        <v>953.1336013146474</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N36" t="n">
-        <v>1464.39924743777</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O36" t="n">
-        <v>1856.59919822192</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P36" t="n">
         <v>2101.212805059961</v>
@@ -7038,28 +7040,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R36" t="n">
-        <v>2069.143207608369</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S36" t="n">
-        <v>1916.343720621109</v>
+        <v>2080.519024424688</v>
       </c>
       <c r="T36" t="n">
-        <v>1727.658616787095</v>
+        <v>1891.833920590673</v>
       </c>
       <c r="U36" t="n">
-        <v>1509.163824385405</v>
+        <v>1673.339128188983</v>
       </c>
       <c r="V36" t="n">
-        <v>1280.768201833739</v>
+        <v>1444.943505637317</v>
       </c>
       <c r="W36" t="n">
-        <v>1039.452333067049</v>
+        <v>1203.627636870627</v>
       </c>
       <c r="X36" t="n">
-        <v>841.5353449448434</v>
+        <v>1005.710648748422</v>
       </c>
       <c r="Y36" t="n">
-        <v>649.0140185944222</v>
+        <v>813.1893223980007</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.02425610119923</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="C37" t="n">
-        <v>42.02425610119923</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="D37" t="n">
-        <v>42.02425610119923</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="E37" t="n">
-        <v>42.02425610119923</v>
+        <v>1949.20379082128</v>
       </c>
       <c r="F37" t="n">
-        <v>42.02425610119923</v>
+        <v>1796.723135847057</v>
       </c>
       <c r="G37" t="n">
-        <v>42.02425610119923</v>
+        <v>1629.210798399856</v>
       </c>
       <c r="H37" t="n">
-        <v>42.02425610119923</v>
+        <v>1629.210798399856</v>
       </c>
       <c r="I37" t="n">
-        <v>42.02425610119923</v>
+        <v>1629.210798399856</v>
       </c>
       <c r="J37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K37" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L37" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M37" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N37" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O37" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P37" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q37" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R37" t="n">
-        <v>424.5617199615099</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S37" t="n">
-        <v>424.5617199615099</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T37" t="n">
-        <v>424.5617199615099</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U37" t="n">
-        <v>424.5617199615099</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V37" t="n">
-        <v>163.8264155199325</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W37" t="n">
-        <v>163.8264155199325</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X37" t="n">
-        <v>163.8264155199325</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.02425610119923</v>
+        <v>2101.212805059961</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1429.302003668149</v>
+        <v>1302.420452735063</v>
       </c>
       <c r="C38" t="n">
-        <v>1047.368245000957</v>
+        <v>920.4866940678704</v>
       </c>
       <c r="D38" t="n">
-        <v>674.5442802281802</v>
+        <v>547.662729295094</v>
       </c>
       <c r="E38" t="n">
-        <v>279.7585603342871</v>
+        <v>547.662729295094</v>
       </c>
       <c r="F38" t="n">
-        <v>279.7585603342871</v>
+        <v>547.662729295094</v>
       </c>
       <c r="G38" t="n">
-        <v>279.7585603342871</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H38" t="n">
         <v>214.8414548924032</v>
@@ -7175,10 +7177,10 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K38" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187876</v>
       </c>
       <c r="L38" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037339</v>
       </c>
       <c r="M38" t="n">
         <v>1095.287711756822</v>
@@ -7199,25 +7201,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S38" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T38" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U38" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V38" t="n">
-        <v>1823.345543186168</v>
+        <v>1673.595244451756</v>
       </c>
       <c r="W38" t="n">
-        <v>1823.345543186168</v>
+        <v>1311.060314309357</v>
       </c>
       <c r="X38" t="n">
-        <v>1823.345543186168</v>
+        <v>1302.420452735063</v>
       </c>
       <c r="Y38" t="n">
-        <v>1823.345543186168</v>
+        <v>1302.420452735063</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>714.1160942835163</v>
+        <v>650.5650081937138</v>
       </c>
       <c r="C39" t="n">
-        <v>552.412421524471</v>
+        <v>488.8613354346685</v>
       </c>
       <c r="D39" t="n">
-        <v>552.412421524471</v>
+        <v>350.0226984248806</v>
       </c>
       <c r="E39" t="n">
-        <v>405.3844115813423</v>
+        <v>202.9946884817518</v>
       </c>
       <c r="F39" t="n">
-        <v>270.6906135312166</v>
+        <v>68.30089043162613</v>
       </c>
       <c r="G39" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H39" t="n">
         <v>42.02425610119923</v>
@@ -7251,22 +7253,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J39" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K39" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L39" t="n">
-        <v>252.8463055811703</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M39" t="n">
-        <v>737.8796590913968</v>
+        <v>1039.975578367094</v>
       </c>
       <c r="N39" t="n">
-        <v>1249.145305214519</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O39" t="n">
-        <v>1641.34525599867</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P39" t="n">
         <v>1943.441175274367</v>
@@ -7275,28 +7277,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R39" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S39" t="n">
-        <v>1981.445796310204</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T39" t="n">
-        <v>1792.760692476189</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="U39" t="n">
-        <v>1574.265900074499</v>
+        <v>1670.134256765957</v>
       </c>
       <c r="V39" t="n">
-        <v>1345.870277522833</v>
+        <v>1441.738634214291</v>
       </c>
       <c r="W39" t="n">
-        <v>1104.554408756143</v>
+        <v>1200.422765447601</v>
       </c>
       <c r="X39" t="n">
-        <v>906.6374206339375</v>
+        <v>1002.505777325396</v>
       </c>
       <c r="Y39" t="n">
-        <v>714.1160942835163</v>
+        <v>809.9844509749746</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2043.850436763267</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C40" t="n">
-        <v>1874.234467224947</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D40" t="n">
-        <v>1721.16257405271</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K40" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L40" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M40" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N40" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O40" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X40" t="n">
-        <v>2101.212805059961</v>
+        <v>342.8310372425075</v>
       </c>
       <c r="Y40" t="n">
-        <v>2101.212805059961</v>
+        <v>225.5796247855791</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>872.2794333368408</v>
+        <v>1191.567699435062</v>
       </c>
       <c r="C41" t="n">
-        <v>872.2794333368408</v>
+        <v>809.6339407678688</v>
       </c>
       <c r="D41" t="n">
-        <v>872.2794333368408</v>
+        <v>436.8099759950924</v>
       </c>
       <c r="E41" t="n">
-        <v>872.2794333368408</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F41" t="n">
-        <v>458.1282426470112</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G41" t="n">
         <v>42.02425610119923</v>
@@ -7409,10 +7411,10 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J41" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740048</v>
       </c>
       <c r="K41" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187876</v>
       </c>
       <c r="L41" t="n">
         <v>702.048545503734</v>
@@ -7436,25 +7438,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S41" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T41" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.212805059961</v>
+        <v>1585.109554859223</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.212805059961</v>
+        <v>1585.109554859223</v>
       </c>
       <c r="W41" t="n">
-        <v>2041.894968757528</v>
+        <v>1585.109554859223</v>
       </c>
       <c r="X41" t="n">
-        <v>1659.864828279022</v>
+        <v>1585.109554859223</v>
       </c>
       <c r="Y41" t="n">
-        <v>1266.32297285486</v>
+        <v>1191.567699435062</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>866.9849866024344</v>
+        <v>724.2262313165888</v>
       </c>
       <c r="C42" t="n">
-        <v>759.6333438441981</v>
+        <v>562.5225585575436</v>
       </c>
       <c r="D42" t="n">
-        <v>620.7947068344101</v>
+        <v>423.6839215477556</v>
       </c>
       <c r="E42" t="n">
-        <v>473.7666968912813</v>
+        <v>276.6559116046268</v>
       </c>
       <c r="F42" t="n">
-        <v>339.0728988411556</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="G42" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I42" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K42" t="n">
-        <v>331.768955194494</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L42" t="n">
-        <v>697.5908003646097</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M42" t="n">
-        <v>1182.624153874836</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N42" t="n">
-        <v>1693.889799997958</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O42" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P42" t="n">
         <v>2101.212805059961</v>
@@ -7515,25 +7517,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S42" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T42" t="n">
-        <v>1912.527701225946</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="U42" t="n">
-        <v>1694.032908824257</v>
+        <v>1743.795479888832</v>
       </c>
       <c r="V42" t="n">
-        <v>1465.63728627259</v>
+        <v>1515.399857337166</v>
       </c>
       <c r="W42" t="n">
-        <v>1224.321417505901</v>
+        <v>1274.083988570476</v>
       </c>
       <c r="X42" t="n">
-        <v>1026.404429383695</v>
+        <v>1076.167000448271</v>
       </c>
       <c r="Y42" t="n">
-        <v>1026.404429383695</v>
+        <v>883.6456740978497</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H43" t="n">
         <v>42.02425610119923</v>
@@ -7594,25 +7596,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S43" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T43" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U43" t="n">
-        <v>360.3737387508193</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1755.689182269809</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="C44" t="n">
-        <v>1755.689182269809</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="D44" t="n">
-        <v>1439.882352021938</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="E44" t="n">
-        <v>1045.096632128045</v>
+        <v>536.8115497453803</v>
       </c>
       <c r="F44" t="n">
-        <v>630.9454414382152</v>
+        <v>122.6603590555506</v>
       </c>
       <c r="G44" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H44" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I44" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J44" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K44" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187876</v>
       </c>
       <c r="L44" t="n">
-        <v>702.0485455037335</v>
+        <v>702.0485455037339</v>
       </c>
       <c r="M44" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N44" t="n">
         <v>1473.619070444537</v>
@@ -7670,28 +7672,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R44" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S44" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T44" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U44" t="n">
-        <v>1755.689182269809</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V44" t="n">
-        <v>1755.689182269809</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W44" t="n">
-        <v>1755.689182269809</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X44" t="n">
-        <v>1755.689182269809</v>
+        <v>1719.182664581455</v>
       </c>
       <c r="Y44" t="n">
-        <v>1755.689182269809</v>
+        <v>1325.640809157293</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>461.879904359699</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C45" t="n">
-        <v>300.1762316006536</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D45" t="n">
-        <v>257.434551354267</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E45" t="n">
-        <v>110.4065414111382</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F45" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G45" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I45" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J45" t="n">
-        <v>44.796090196649</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K45" t="n">
-        <v>44.796090196649</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L45" t="n">
         <v>410.6179353667646</v>
@@ -7749,28 +7751,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R45" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S45" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T45" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U45" t="n">
-        <v>1481.449152931943</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V45" t="n">
-        <v>1253.053530380276</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W45" t="n">
-        <v>1011.737661613587</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X45" t="n">
-        <v>813.8206734913811</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y45" t="n">
-        <v>621.2993471409599</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D46" t="n">
-        <v>2042.562977659083</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E46" t="n">
-        <v>1890.553963420402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F46" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K46" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L46" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M46" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N46" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O46" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V46" t="n">
-        <v>2101.212805059961</v>
+        <v>447.614783593302</v>
       </c>
       <c r="W46" t="n">
-        <v>2101.212805059961</v>
+        <v>447.614783593302</v>
       </c>
       <c r="X46" t="n">
-        <v>2101.212805059961</v>
+        <v>447.614783593302</v>
       </c>
       <c r="Y46" t="n">
-        <v>2101.212805059961</v>
+        <v>225.5796247855791</v>
       </c>
     </row>
   </sheetData>
@@ -7994,10 +7996,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229271</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,10 +8057,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
@@ -8070,10 +8072,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>428.7943191257726</v>
       </c>
       <c r="P3" t="n">
-        <v>196.5733747639883</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8231,10 +8233,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229271</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8307,10 +8309,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>222.1494342538443</v>
       </c>
       <c r="P6" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
         <v>113.7351914448925</v>
@@ -8529,7 +8531,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8538,10 +8540,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>522.1898869410242</v>
       </c>
       <c r="N9" t="n">
-        <v>479.0556164367791</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8690,7 +8692,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>421.3890363425138</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
         <v>542.9595789155856</v>
@@ -8708,7 +8710,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,13 +8768,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>482.0924488944969</v>
+        <v>253.0836423644577</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
@@ -8784,7 +8786,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
         <v>113.7351914448925</v>
@@ -8945,7 +8947,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9015,16 +9017,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>173.9082232290041</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,16 +9242,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M18" t="n">
-        <v>387.98835840707</v>
+        <v>586.5595090565984</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9486,19 +9488,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>552.3412859060218</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2735058407155</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,10 +9716,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>105.8554040863129</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9729,13 +9731,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
-        <v>512.0210150597484</v>
+        <v>123.6469259179976</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,16 +9953,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M27" t="n">
-        <v>315.5450020690959</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9972,7 +9974,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10203,13 +10205,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P30" t="n">
-        <v>124.1300184260142</v>
+        <v>360.9263022629402</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10367,7 +10369,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q32" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10431,22 +10433,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>543.4252385523532</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10604,7 +10606,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,10 +10664,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10680,7 +10682,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
         <v>113.7351914448925</v>
@@ -10899,16 +10901,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>461.3271126651593</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -10917,7 +10919,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11072,7 +11074,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O41" t="n">
-        <v>495.0402356415685</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
         <v>418.3383206229274</v>
@@ -11136,10 +11138,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11154,7 +11156,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>113.7351914448925</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11373,13 +11375,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>105.8554040863129</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>253.0836423644577</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>270.6851830369903</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>78.46207532510101</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
@@ -22562,7 +22564,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -22601,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -22613,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22717,16 +22719,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>38.64046520703945</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>101.8597073339676</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -22784,10 +22786,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -22796,13 +22798,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>286.3302112565985</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,22 +22837,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>202.4726269448242</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22869,7 +22871,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -22908,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>27.43752473892757</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22945,7 +22947,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>2.396247435206419</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
@@ -22957,7 +22959,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -22987,13 +22989,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>63.70773940111971</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -23008,7 +23010,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -23021,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>189.9561998818202</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>171.7757709158788</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23106,16 +23108,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>95.13598719576729</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23145,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23166,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>57.6063699920434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23191,16 +23193,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0.4884972741915732</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23233,10 +23235,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>15.70763571947964</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>133.6035419151749</v>
       </c>
       <c r="E11" t="n">
-        <v>154.610920912965</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23334,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>9.32100987217845</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>10.06576806336254</v>
       </c>
       <c r="I12" t="n">
         <v>67.69846245683961</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>167.2305511458285</v>
+        <v>0.4884972741916158</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23437,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.83061109871237</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T13" t="n">
         <v>230.8471636524779</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>250.8970325532982</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>257.3707254978302</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I14" t="n">
         <v>171.0890268032919</v>
@@ -23558,10 +23560,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>111.0577627180933</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23580,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23656,16 +23658,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
-        <v>76.29830259338959</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2305511458285</v>
+        <v>0.4884972741916158</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23674,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23732,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>257.3707254978302</v>
       </c>
       <c r="F17" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
         <v>171.0890268032919</v>
@@ -23777,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>91.24695648067571</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T17" t="n">
         <v>222.1153568062989</v>
@@ -23789,13 +23791,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23817,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H19" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I19" t="n">
-        <v>14.10007595818155</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -23941,13 +23943,13 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>283.2948374677749</v>
@@ -23978,7 +23980,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>159.351835591142</v>
+        <v>354.6669517337813</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24014,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U20" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24054,16 +24056,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
         <v>67.69846245683961</v>
@@ -24099,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>200.3658258685944</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>62.42773816504086</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -24172,10 +24174,10 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T22" t="n">
         <v>230.8471636524779</v>
@@ -24193,7 +24195,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>142.5474905187134</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>154.610920912965</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.3641445279908</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24266,13 +24268,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24291,19 +24293,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24336,13 +24338,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>51.75444384776114</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24382,10 +24384,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I25" t="n">
-        <v>90.5974983280356</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>230.8471636524779</v>
@@ -24427,7 +24429,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>61.80051521221978</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -24443,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>311.6163853749047</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
         <v>329.4930616586638</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>12.93841329198406</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>185.3566856159496</v>
@@ -24500,16 +24502,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24537,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24570,19 +24572,19 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>145.4661439089489</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>169.5644485789557</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24604,13 +24606,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>33.88632126868406</v>
       </c>
       <c r="G28" t="n">
         <v>167.2305511458285</v>
@@ -24655,7 +24657,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>15.70763571947987</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24680,25 +24682,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>265.9869950823686</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>19.02885423144818</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,22 +24730,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -24810,10 +24812,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>186.7982527956746</v>
+        <v>28.09477831004497</v>
       </c>
       <c r="U30" t="n">
-        <v>57.60636999204326</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
         <v>151.5411742405149</v>
@@ -24883,13 +24885,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>211.5726649703493</v>
+        <v>63.70773940111974</v>
       </c>
       <c r="T31" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>284.3183371157911</v>
@@ -24904,7 +24906,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.71577926664511</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>122.7156632105544</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>185.3566856159496</v>
@@ -24971,16 +24973,16 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>25.90472907070381</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -25005,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,16 +25046,16 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>57.60636999204328</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>230.8471636524779</v>
+        <v>63.70773940111974</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>40.8745217900929</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
@@ -25154,25 +25156,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9429466803539</v>
+        <v>43.81893955842412</v>
       </c>
       <c r="H35" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I35" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>159.7870878735606</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -25236,22 +25238,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>27.43752473892757</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>130.7846492884664</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25318,13 +25320,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.2305511458285</v>
+        <v>1.393337073099559</v>
       </c>
       <c r="H37" t="n">
         <v>157.7789187685189</v>
@@ -25333,7 +25335,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>211.5726649703493</v>
@@ -25369,7 +25371,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
         <v>283.2948374677749</v>
@@ -25378,7 +25380,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>99.23066939509975</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25397,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
         <v>410.0096787829314</v>
@@ -25406,7 +25408,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
-        <v>265.2251272711987</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
         <v>222.1153568062989</v>
@@ -25448,13 +25450,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>369.6563761151706</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -25467,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25482,10 +25484,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>101.4273469898256</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
         <v>67.69846245683961</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>32.70215345512725</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>124.9310703838087</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -25612,10 +25614,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>103.7359088872865</v>
       </c>
     </row>
     <row r="41">
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
         <v>329.4930616586638</v>
@@ -25676,22 +25678,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.3364829231459</v>
+        <v>148.8663076466638</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>300.1849229015664</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>53.80850970080084</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25719,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,13 +25757,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>13.73818467564215</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25773,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25801,7 +25803,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H43" t="n">
-        <v>100.7408823425567</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
@@ -25834,13 +25836,13 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>56.44696317965668</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>332.113204755546</v>
       </c>
       <c r="H44" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>185.3566856159496</v>
@@ -25919,7 +25921,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25928,10 +25930,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25947,13 +25949,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>95.13598719576727</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>127.4412149769483</v>
@@ -25962,7 +25964,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -25998,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>101.5979585925483</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>93.47784511364551</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
@@ -26080,7 +26082,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>132.9239208208702</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
@@ -26089,7 +26091,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>653587.6950898254</v>
+        <v>653587.6950898253</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>653587.6950898254</v>
+        <v>653587.6950898253</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>653587.6950898257</v>
+        <v>653587.6950898253</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653587.6950898254</v>
+        <v>653587.6950898253</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>653587.6950898254</v>
+        <v>653587.6950898253</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>653587.6950898253</v>
+        <v>653587.6950898254</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>653587.6950898254</v>
+        <v>653587.6950898253</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>653587.6950898253</v>
+        <v>653587.6950898254</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>653587.6950898254</v>
+        <v>653587.6950898252</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>154994.1683618826</v>
+        <v>154994.1683618825</v>
       </c>
       <c r="C2" t="n">
         <v>154994.1683618826</v>
       </c>
       <c r="D2" t="n">
-        <v>154994.1683618826</v>
+        <v>154994.1683618825</v>
       </c>
       <c r="E2" t="n">
         <v>154994.1683618825</v>
@@ -26326,22 +26328,22 @@
         <v>154994.1683618826</v>
       </c>
       <c r="G2" t="n">
-        <v>154994.1683618826</v>
+        <v>154994.1683618825</v>
       </c>
       <c r="H2" t="n">
         <v>154994.1683618825</v>
       </c>
       <c r="I2" t="n">
-        <v>154994.1683618826</v>
+        <v>154994.1683618824</v>
       </c>
       <c r="J2" t="n">
         <v>154994.1683618825</v>
       </c>
       <c r="K2" t="n">
+        <v>154994.1683618825</v>
+      </c>
+      <c r="L2" t="n">
         <v>154994.1683618826</v>
-      </c>
-      <c r="L2" t="n">
-        <v>154994.1683618825</v>
       </c>
       <c r="M2" t="n">
         <v>154994.1683618826</v>
@@ -26350,7 +26352,7 @@
         <v>154994.1683618825</v>
       </c>
       <c r="O2" t="n">
-        <v>154994.1683618825</v>
+        <v>154994.1683618826</v>
       </c>
       <c r="P2" t="n">
         <v>154994.1683618825</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>34011.00713450603</v>
+      </c>
+      <c r="C4" t="n">
         <v>34011.00713450602</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
+        <v>34011.00713450602</v>
+      </c>
+      <c r="E4" t="n">
         <v>34011.00713450603</v>
       </c>
-      <c r="D4" t="n">
-        <v>34011.00713450601</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>34011.00713450602</v>
-      </c>
-      <c r="F4" t="n">
-        <v>34011.00713450603</v>
       </c>
       <c r="G4" t="n">
         <v>34011.00713450603</v>
@@ -26436,22 +26438,22 @@
         <v>34011.00713450603</v>
       </c>
       <c r="I4" t="n">
-        <v>34011.00713450603</v>
+        <v>34011.00713450602</v>
       </c>
       <c r="J4" t="n">
         <v>34011.00713450603</v>
       </c>
       <c r="K4" t="n">
+        <v>34011.00713450602</v>
+      </c>
+      <c r="L4" t="n">
+        <v>34011.00713450602</v>
+      </c>
+      <c r="M4" t="n">
         <v>34011.00713450603</v>
       </c>
-      <c r="L4" t="n">
-        <v>34011.00713450603</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>34011.00713450602</v>
-      </c>
-      <c r="N4" t="n">
-        <v>34011.00713450603</v>
       </c>
       <c r="O4" t="n">
         <v>34011.00713450603</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120624.0581270622</v>
+        <v>-120624.0581270623</v>
       </c>
       <c r="C6" t="n">
-        <v>55417.12659046512</v>
+        <v>55417.12659046517</v>
       </c>
       <c r="D6" t="n">
-        <v>55417.12659046514</v>
+        <v>55417.12659046511</v>
       </c>
       <c r="E6" t="n">
+        <v>89044.72659046507</v>
+      </c>
+      <c r="F6" t="n">
+        <v>89044.72659046517</v>
+      </c>
+      <c r="G6" t="n">
+        <v>89044.72659046504</v>
+      </c>
+      <c r="H6" t="n">
+        <v>89044.7265904651</v>
+      </c>
+      <c r="I6" t="n">
+        <v>89044.72659046503</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-48397.70420131201</v>
+      </c>
+      <c r="K6" t="n">
         <v>89044.72659046511</v>
       </c>
-      <c r="F6" t="n">
-        <v>89044.72659046513</v>
-      </c>
-      <c r="G6" t="n">
-        <v>89044.72659046513</v>
-      </c>
-      <c r="H6" t="n">
-        <v>89044.72659046507</v>
-      </c>
-      <c r="I6" t="n">
-        <v>89044.72659046513</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-48397.70420131205</v>
-      </c>
-      <c r="K6" t="n">
-        <v>89044.72659046513</v>
-      </c>
       <c r="L6" t="n">
+        <v>89044.72659046514</v>
+      </c>
+      <c r="M6" t="n">
+        <v>89044.72659046519</v>
+      </c>
+      <c r="N6" t="n">
+        <v>89044.72659046511</v>
+      </c>
+      <c r="O6" t="n">
+        <v>89044.72659046516</v>
+      </c>
+      <c r="P6" t="n">
         <v>89044.7265904651</v>
-      </c>
-      <c r="M6" t="n">
-        <v>89044.72659046514</v>
-      </c>
-      <c r="N6" t="n">
-        <v>89044.72659046507</v>
-      </c>
-      <c r="O6" t="n">
-        <v>89044.72659046507</v>
-      </c>
-      <c r="P6" t="n">
-        <v>89044.72659046507</v>
       </c>
     </row>
   </sheetData>
@@ -34714,10 +34716,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>230.4615115717709</v>
+        <v>230.4615115717706</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
@@ -34790,10 +34792,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>312.9348705146615</v>
       </c>
       <c r="P3" t="n">
-        <v>87.71916873984496</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34951,10 +34953,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4615115717709</v>
+        <v>230.4615115717706</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35027,10 +35029,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>106.2899856427332</v>
       </c>
       <c r="P6" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35258,10 +35260,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>406.7059843793842</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3404753690708</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35410,7 +35412,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5660323684671</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
         <v>351.3993667524709</v>
@@ -35428,7 +35430,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
-        <v>369.5170153233491</v>
+        <v>140.5082087933099</v>
       </c>
       <c r="M12" t="n">
         <v>489.93268031336</v>
@@ -35504,7 +35506,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35665,7 +35667,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35735,16 +35737,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>67.19308216129573</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>272.5044558454301</v>
+        <v>471.0756064949585</v>
       </c>
       <c r="N18" t="n">
         <v>516.4299455789112</v>
@@ -36206,19 +36208,19 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>489.93268031336</v>
+        <v>436.8573833443818</v>
       </c>
       <c r="N21" t="n">
-        <v>226.5583647730072</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
@@ -36449,13 +36451,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O24" t="n">
-        <v>396.1615664486372</v>
+        <v>7.787477306886452</v>
       </c>
       <c r="P24" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M27" t="n">
-        <v>200.061099507456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N27" t="n">
         <v>516.4299455789112</v>
@@ -36692,7 +36694,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36923,13 +36925,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O30" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>15.27581240187084</v>
+        <v>252.0720962387968</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M33" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N33" t="n">
-        <v>436.7100974846449</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O33" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P33" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L36" t="n">
         <v>369.5170153233491</v>
@@ -37400,7 +37402,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L39" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M39" t="n">
-        <v>489.93268031336</v>
+        <v>345.8432101035195</v>
       </c>
       <c r="N39" t="n">
         <v>516.4299455789112</v>
@@ -37637,7 +37639,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P39" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>159.3652826117113</v>
@@ -37792,7 +37794,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614481</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
         <v>230.4615115717709</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>231.8086389496855</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L42" t="n">
         <v>369.5170153233491</v>
@@ -37874,7 +37876,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L45" t="n">
-        <v>369.5170153233491</v>
+        <v>140.5082087933099</v>
       </c>
       <c r="M45" t="n">
         <v>489.93268031336</v>
